--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220502_154535.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220502_154535.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="264">
   <si>
     <t>날짜</t>
   </si>
@@ -3305,6 +3305,12 @@
       <c r="E95" t="s">
         <v>226</v>
       </c>
+      <c r="F95">
+        <v>285</v>
+      </c>
+      <c r="G95" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
